--- a/data/Febrero.xlsx
+++ b/data/Febrero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{537FD078-6E62-4D55-A6CE-8F5CFDD37098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D7F489-EE94-405E-88F5-57B3504D448F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5187B3BB-C46B-461B-92BE-4930F9F9022B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Proyecto</t>
   </si>
@@ -52,13 +52,16 @@
   <si>
     <t>Proyecto A</t>
   </si>
+  <si>
+    <t>Proyecto C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -98,7 +101,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,12 +155,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B698367-53E3-4250-B56E-B9EDC91179C0}" name="Tabla1" displayName="Tabla1" ref="A1:C3" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:C3" xr:uid="{8B698367-53E3-4250-B56E-B9EDC91179C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B698367-53E3-4250-B56E-B9EDC91179C0}" name="Tabla1" displayName="Tabla1" ref="A1:C4" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C4" xr:uid="{8B698367-53E3-4250-B56E-B9EDC91179C0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9F8FE998-BABD-4008-B5AE-927FA2DD4602}" name="Proyecto" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{39AF9119-1C6E-4118-857F-83E544096C91}" name="Fecha_Base" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{A5468D33-50E5-4703-A02C-A5B98C475F88}" name="Fecha_Proyectada" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9F8FE998-BABD-4008-B5AE-927FA2DD4602}" name="Proyecto" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{39AF9119-1C6E-4118-857F-83E544096C91}" name="Fecha_Base" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A5468D33-50E5-4703-A02C-A5B98C475F88}" name="Fecha_Proyectada" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F982226A-544D-4D3E-B53C-B8CCB54C27CF}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,19 +514,22 @@
         <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45992</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Febrero.xlsx
+++ b/data/Febrero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D7F489-EE94-405E-88F5-57B3504D448F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED80E865-5451-4816-97B9-F46ACD88CCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5187B3BB-C46B-461B-92BE-4930F9F9022B}"/>
+    <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{5187B3BB-C46B-461B-92BE-4930F9F9022B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,15 +521,23 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45996</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Febrero.xlsx
+++ b/data/Febrero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED80E865-5451-4816-97B9-F46ACD88CCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E96F932-9016-4703-B160-8EA51BBD861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{5187B3BB-C46B-461B-92BE-4930F9F9022B}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Febrero.xlsx
+++ b/data/Febrero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E96F932-9016-4703-B160-8EA51BBD861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A76C09-F14C-442D-8E24-EA2AEE0EFC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{5187B3BB-C46B-461B-92BE-4930F9F9022B}"/>
+    <workbookView xWindow="43095" yWindow="825" windowWidth="14610" windowHeight="15585" xr2:uid="{5187B3BB-C46B-461B-92BE-4930F9F9022B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,13 @@
     <t>Fecha_Proyectada</t>
   </si>
   <si>
-    <t>Proyecto B</t>
+    <t>BURDEOS CIUDAD LA SALLE</t>
   </si>
   <si>
-    <t>Proyecto A</t>
+    <t>CHAMONIX CIUDAD LA SALLE</t>
   </si>
   <si>
-    <t>Proyecto C</t>
+    <t>LA SCALA</t>
   </si>
 </sst>
 </file>
@@ -486,11 +486,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
   </cols>
@@ -508,24 +509,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>45992</v>
+        <v>46511</v>
       </c>
       <c r="C2" s="2">
-        <v>45996</v>
+        <v>46532</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45992</v>
+        <v>46219</v>
       </c>
       <c r="C3" s="2">
-        <v>45996</v>
+        <v>46420</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -533,10 +534,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>45992</v>
+        <v>46688</v>
       </c>
       <c r="C4" s="2">
-        <v>45996</v>
+        <v>46792</v>
       </c>
     </row>
   </sheetData>
